--- a/Secretarias/SEGOB/INVEDEP/INVEDEP_2021.xlsx
+++ b/Secretarias/SEGOB/INVEDEP/INVEDEP_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Carmona\Documents\GitHub\MapasTematicos\Secretarias\SEGOB\INVEDEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkcShadow\Documents\GitHub\MapasTematicos\Secretarias\SEGOB\INVEDEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B33EFF-17CE-4C2F-ACB6-8BD4C4E8491D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DA1678-66E3-4D64-8ED5-98A1634A9F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CARAVANAS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="851">
   <si>
     <t>MUNICIPIO</t>
   </si>
@@ -2525,20 +2525,91 @@
   </si>
   <si>
     <t>https://live.staticflickr.com/65535/53845395835_a3eff3eb92_z.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040038062_d274d5a296_h.jpg</t>
+  </si>
+  <si>
+    <t>https://flic.kr/s/aHBqjBLi5r</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54041435147_1d45e8f35f_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042310536_1dff620e4a_h.jpg</t>
+  </si>
+  <si>
+    <t>Juchique de Ferrer</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54041479587_e82eb29b7f_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042719089_3c4c49dc97_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042413416_9c01bd3929_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042757504_d6a94d5abe_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042857880_92816f5507_h.jpg</t>
+  </si>
+  <si>
+    <t>Tihuatlán</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040902446_9bdd5a4daa_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042902550_3580143372_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54041480187_4caebcf4c0_h.jpg</t>
+  </si>
+  <si>
+    <t>Xocotla</t>
+  </si>
+  <si>
+    <t>https://flic.kr/s/aHBqjBLbAz</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040026677_fe5392ea91_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040026167_a47decc8a3_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042469111_1f9740d9d4_h.jpg</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042950220_e9055a310f_h.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mm\-yy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2772,7 +2843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2862,228 +2933,274 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="12" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="12" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3407,23 +3524,23 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="21" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="35.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="14.42578125" style="1"/>
+    <col min="7" max="7" width="32.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="35.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" ht="35.25" customHeight="1">
@@ -3520,7 +3637,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="14.4">
       <c r="A3" s="3">
         <v>30117</v>
       </c>
@@ -3567,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="14.4">
       <c r="A4" s="3">
         <v>30006</v>
       </c>
@@ -3614,7 +3731,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="14.4">
       <c r="A5" s="3">
         <v>30142</v>
       </c>
@@ -3661,7 +3778,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="14.4">
       <c r="A6" s="3">
         <v>30207</v>
       </c>
@@ -3708,7 +3825,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="14.4">
       <c r="A7" s="3">
         <v>30094</v>
       </c>
@@ -3755,7 +3872,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="14.4">
       <c r="A8" s="4">
         <v>30174</v>
       </c>
@@ -3802,7 +3919,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="14.4">
       <c r="A9" s="3">
         <v>30201</v>
       </c>
@@ -3849,7 +3966,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="14.4">
       <c r="A10" s="3">
         <v>30169</v>
       </c>
@@ -3977,7 +4094,7 @@
     <row r="96" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="M4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -4017,23 +4134,23 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="67.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="14.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="67.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" ht="57.75" customHeight="1">
@@ -4080,7 +4197,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="14.4">
       <c r="A2" s="15">
         <v>30117</v>
       </c>
@@ -7570,14 +7687,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState ref="A4:N116">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N116">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:N115">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N115">
     <sortCondition ref="E1"/>
   </sortState>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="L2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -7811,23 +7928,23 @@
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="61.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="37.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -9528,9 +9645,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -9777,17 +9894,17 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="8" max="9" width="11.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="50"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -14141,11 +14258,11 @@
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -17059,13 +17176,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7383C757-0AD9-4804-8FEE-172E3B9072B1}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="16" t="s">
@@ -19352,6 +19475,842 @@
         <v>829</v>
       </c>
       <c r="N52" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="81" t="s">
+        <v>821</v>
+      </c>
+      <c r="F53" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="79">
+        <v>7</v>
+      </c>
+      <c r="I53" s="79">
+        <v>7</v>
+      </c>
+      <c r="J53" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="76" t="s">
+        <v>796</v>
+      </c>
+      <c r="M53" s="76" t="s">
+        <v>822</v>
+      </c>
+      <c r="N53" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="79">
+        <v>30109</v>
+      </c>
+      <c r="B54" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="C54" s="79">
+        <v>30109</v>
+      </c>
+      <c r="D54" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="E54" s="82" t="s">
+        <v>823</v>
+      </c>
+      <c r="F54" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="79">
+        <v>9</v>
+      </c>
+      <c r="I54" s="79">
+        <v>9</v>
+      </c>
+      <c r="J54" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="76" t="s">
+        <v>824</v>
+      </c>
+      <c r="M54" s="76" t="s">
+        <v>825</v>
+      </c>
+      <c r="N54" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="E55" s="82" t="s">
+        <v>826</v>
+      </c>
+      <c r="F55" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="79">
+        <v>3</v>
+      </c>
+      <c r="I55" s="79">
+        <v>3</v>
+      </c>
+      <c r="J55" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="76" t="s">
+        <v>721</v>
+      </c>
+      <c r="M55" s="76" t="s">
+        <v>827</v>
+      </c>
+      <c r="N55" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="82" t="s">
+        <v>828</v>
+      </c>
+      <c r="F56" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="79">
+        <v>53</v>
+      </c>
+      <c r="I56" s="79">
+        <v>53</v>
+      </c>
+      <c r="J56" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="76" t="s">
+        <v>796</v>
+      </c>
+      <c r="M56" s="76" t="s">
+        <v>829</v>
+      </c>
+      <c r="N56" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="79">
+        <v>30040</v>
+      </c>
+      <c r="B57" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="C57" s="79">
+        <v>30040</v>
+      </c>
+      <c r="D57" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="E57" s="83">
+        <v>45476</v>
+      </c>
+      <c r="F57" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" s="84">
+        <v>2</v>
+      </c>
+      <c r="I57" s="84">
+        <v>2</v>
+      </c>
+      <c r="J57" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="77" t="s">
+        <v>734</v>
+      </c>
+      <c r="M57" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="N57" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="79">
+        <v>30160</v>
+      </c>
+      <c r="B58" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="C58" s="79">
+        <v>30160</v>
+      </c>
+      <c r="D58" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="E58" s="83">
+        <v>45477</v>
+      </c>
+      <c r="F58" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" s="84">
+        <v>26</v>
+      </c>
+      <c r="I58" s="84">
+        <v>26</v>
+      </c>
+      <c r="J58" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="77" t="s">
+        <v>831</v>
+      </c>
+      <c r="M58" s="78" t="s">
+        <v>832</v>
+      </c>
+      <c r="N58" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="79">
+        <v>30083</v>
+      </c>
+      <c r="B59" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="79">
+        <v>30083</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="83">
+        <v>45482</v>
+      </c>
+      <c r="F59" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="84">
+        <v>2</v>
+      </c>
+      <c r="I59" s="84">
+        <v>2</v>
+      </c>
+      <c r="J59" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="77" t="s">
+        <v>752</v>
+      </c>
+      <c r="M59" s="78" t="s">
+        <v>833</v>
+      </c>
+      <c r="N59" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="79">
+        <v>30095</v>
+      </c>
+      <c r="B60" s="79" t="s">
+        <v>834</v>
+      </c>
+      <c r="C60" s="79">
+        <v>30095</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>834</v>
+      </c>
+      <c r="E60" s="83">
+        <v>45524</v>
+      </c>
+      <c r="F60" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" s="84">
+        <v>17</v>
+      </c>
+      <c r="I60" s="84">
+        <v>17</v>
+      </c>
+      <c r="J60" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="77" t="s">
+        <v>824</v>
+      </c>
+      <c r="M60" s="78" t="s">
+        <v>835</v>
+      </c>
+      <c r="N60" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="79">
+        <v>30174</v>
+      </c>
+      <c r="B61" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="79">
+        <v>30174</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="83">
+        <v>45527</v>
+      </c>
+      <c r="F61" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="84">
+        <v>30</v>
+      </c>
+      <c r="I61" s="84">
+        <v>30</v>
+      </c>
+      <c r="J61" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="77" t="s">
+        <v>730</v>
+      </c>
+      <c r="M61" s="78" t="s">
+        <v>836</v>
+      </c>
+      <c r="N61" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="79">
+        <v>30123</v>
+      </c>
+      <c r="B62" s="79" t="s">
+        <v>399</v>
+      </c>
+      <c r="C62" s="79">
+        <v>30123</v>
+      </c>
+      <c r="D62" s="79" t="s">
+        <v>399</v>
+      </c>
+      <c r="E62" s="83">
+        <v>45538</v>
+      </c>
+      <c r="F62" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" s="84">
+        <v>36</v>
+      </c>
+      <c r="I62" s="84">
+        <v>36</v>
+      </c>
+      <c r="J62" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="77" t="s">
+        <v>747</v>
+      </c>
+      <c r="M62" s="78" t="s">
+        <v>837</v>
+      </c>
+      <c r="N62" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="79">
+        <v>30060</v>
+      </c>
+      <c r="B63" s="79" t="s">
+        <v>739</v>
+      </c>
+      <c r="C63" s="79">
+        <v>30060</v>
+      </c>
+      <c r="D63" s="79" t="s">
+        <v>739</v>
+      </c>
+      <c r="E63" s="83">
+        <v>45538</v>
+      </c>
+      <c r="F63" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="84">
+        <v>10</v>
+      </c>
+      <c r="I63" s="84">
+        <v>10</v>
+      </c>
+      <c r="J63" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="77" t="s">
+        <v>741</v>
+      </c>
+      <c r="M63" s="78" t="s">
+        <v>838</v>
+      </c>
+      <c r="N63" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="79">
+        <v>30123</v>
+      </c>
+      <c r="B64" s="79" t="s">
+        <v>399</v>
+      </c>
+      <c r="C64" s="79">
+        <v>30123</v>
+      </c>
+      <c r="D64" s="79" t="s">
+        <v>399</v>
+      </c>
+      <c r="E64" s="83">
+        <v>45539</v>
+      </c>
+      <c r="F64" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" s="84">
+        <v>30</v>
+      </c>
+      <c r="I64" s="84">
+        <v>30</v>
+      </c>
+      <c r="J64" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" s="77" t="s">
+        <v>747</v>
+      </c>
+      <c r="M64" s="78" t="s">
+        <v>839</v>
+      </c>
+      <c r="N64" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="79">
+        <v>30175</v>
+      </c>
+      <c r="B65" s="79" t="s">
+        <v>840</v>
+      </c>
+      <c r="C65" s="79">
+        <v>30175</v>
+      </c>
+      <c r="D65" s="79" t="s">
+        <v>840</v>
+      </c>
+      <c r="E65" s="83">
+        <v>45540</v>
+      </c>
+      <c r="F65" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="84">
+        <v>20</v>
+      </c>
+      <c r="I65" s="84">
+        <v>20</v>
+      </c>
+      <c r="J65" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" s="77" t="s">
+        <v>734</v>
+      </c>
+      <c r="M65" s="78" t="s">
+        <v>841</v>
+      </c>
+      <c r="N65" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="79">
+        <v>30054</v>
+      </c>
+      <c r="B66" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="79">
+        <v>30054</v>
+      </c>
+      <c r="D66" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="83">
+        <v>45546</v>
+      </c>
+      <c r="F66" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" s="84">
+        <v>5</v>
+      </c>
+      <c r="I66" s="84">
+        <v>5</v>
+      </c>
+      <c r="J66" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="77" t="s">
+        <v>730</v>
+      </c>
+      <c r="M66" s="78" t="s">
+        <v>842</v>
+      </c>
+      <c r="N66" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="79">
+        <v>30192</v>
+      </c>
+      <c r="B67" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="79">
+        <v>30192</v>
+      </c>
+      <c r="D67" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="83">
+        <v>45547</v>
+      </c>
+      <c r="F67" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="84">
+        <v>17</v>
+      </c>
+      <c r="I67" s="84">
+        <v>17</v>
+      </c>
+      <c r="J67" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="77" t="s">
+        <v>824</v>
+      </c>
+      <c r="M67" s="78" t="s">
+        <v>843</v>
+      </c>
+      <c r="N67" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="79">
+        <v>30047</v>
+      </c>
+      <c r="B68" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="79">
+        <v>300470036</v>
+      </c>
+      <c r="D68" s="79" t="s">
+        <v>844</v>
+      </c>
+      <c r="E68" s="83">
+        <v>45554</v>
+      </c>
+      <c r="F68" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="79">
+        <v>9</v>
+      </c>
+      <c r="I68" s="79">
+        <v>9</v>
+      </c>
+      <c r="J68" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" s="77" t="s">
+        <v>845</v>
+      </c>
+      <c r="M68" s="78" t="s">
+        <v>846</v>
+      </c>
+      <c r="N68" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="79">
+        <v>30071</v>
+      </c>
+      <c r="B69" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="85">
+        <v>30071</v>
+      </c>
+      <c r="D69" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="86">
+        <v>45555</v>
+      </c>
+      <c r="F69" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" s="85">
+        <v>24</v>
+      </c>
+      <c r="I69" s="85">
+        <v>24</v>
+      </c>
+      <c r="J69" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="77" t="s">
+        <v>845</v>
+      </c>
+      <c r="M69" s="78" t="s">
+        <v>847</v>
+      </c>
+      <c r="N69" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="79">
+        <v>30039</v>
+      </c>
+      <c r="B70" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="79">
+        <v>30039</v>
+      </c>
+      <c r="D70" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="83">
+        <v>45559</v>
+      </c>
+      <c r="F70" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="79">
+        <v>13</v>
+      </c>
+      <c r="I70" s="79">
+        <v>13</v>
+      </c>
+      <c r="J70" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="77" t="s">
+        <v>764</v>
+      </c>
+      <c r="M70" s="78" t="s">
+        <v>848</v>
+      </c>
+      <c r="N70" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="79">
+        <v>30199</v>
+      </c>
+      <c r="B71" s="79" t="s">
+        <v>849</v>
+      </c>
+      <c r="C71" s="79">
+        <v>30199</v>
+      </c>
+      <c r="D71" s="79" t="s">
+        <v>849</v>
+      </c>
+      <c r="E71" s="83">
+        <v>45560</v>
+      </c>
+      <c r="F71" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" s="79">
+        <v>8</v>
+      </c>
+      <c r="I71" s="79">
+        <v>8</v>
+      </c>
+      <c r="J71" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="77" t="s">
+        <v>764</v>
+      </c>
+      <c r="M71" s="78" t="s">
+        <v>850</v>
+      </c>
+      <c r="N71" s="79">
         <v>0</v>
       </c>
     </row>
@@ -19437,8 +20396,42 @@
     <hyperlink ref="M51" r:id="rId78" xr:uid="{B428C734-627A-4390-BC77-321C0C50A06C}"/>
     <hyperlink ref="M39" r:id="rId79" tooltip="https://live.staticflickr.com/65535/53845328779_60a16e38e3_z.jpg" xr:uid="{D6B42E84-76FE-4FD5-999E-AACBF396F76E}"/>
     <hyperlink ref="M40" r:id="rId80" xr:uid="{E90892A4-5115-4308-8378-9B097621CD82}"/>
+    <hyperlink ref="M54" r:id="rId81" xr:uid="{9A684A8B-DDE7-4CA7-94E4-C95316227478}"/>
+    <hyperlink ref="M56" r:id="rId82" xr:uid="{776A2FA8-F581-4A88-9F98-66D4BE2AB230}"/>
+    <hyperlink ref="M53" r:id="rId83" xr:uid="{B6FFAAC1-F8F6-4C71-9041-54BA0F9239EA}"/>
+    <hyperlink ref="M55" r:id="rId84" xr:uid="{68D482B1-29C7-4C79-A350-E6676CB342EB}"/>
+    <hyperlink ref="L57" r:id="rId85" tooltip="https://flic.kr/s/aHBqjBkMmq" xr:uid="{919880F9-215B-4F8B-A1FB-D7FA9475642B}"/>
+    <hyperlink ref="M57" r:id="rId86" xr:uid="{0CAA40BA-61FB-4A2F-B5B7-BE963096C10B}"/>
+    <hyperlink ref="L58" r:id="rId87" tooltip="https://flic.kr/s/aHBqjBLi5r" xr:uid="{6767FC0D-8EBF-481F-A798-F62F1BFD3CC7}"/>
+    <hyperlink ref="M58" r:id="rId88" xr:uid="{C2B730AF-2991-4365-8A93-37AF23078464}"/>
+    <hyperlink ref="L59" r:id="rId89" xr:uid="{885AF993-FFC0-44B3-AAD9-E56EE467EFDB}"/>
+    <hyperlink ref="M59" r:id="rId90" xr:uid="{6BF9D08E-51B8-441A-A1F6-0F69823B02F0}"/>
+    <hyperlink ref="L68" r:id="rId91" xr:uid="{4D3F14B7-04BF-4C4F-B7C3-BE96841C932A}"/>
+    <hyperlink ref="L69" r:id="rId92" xr:uid="{54A72B15-D773-4B9A-B187-26C49781EFAD}"/>
+    <hyperlink ref="M69" r:id="rId93" xr:uid="{94AAFA62-CA74-423B-AAD5-AC8011A17223}"/>
+    <hyperlink ref="M68" r:id="rId94" xr:uid="{EE6E15CD-1599-4869-AB5E-A27DC60BC57D}"/>
+    <hyperlink ref="L65" r:id="rId95" xr:uid="{DE38333C-DCB8-4AA1-BB7F-7A8505564308}"/>
+    <hyperlink ref="M65" r:id="rId96" xr:uid="{80819DAE-AF16-4326-9F21-373A66BEEA9E}"/>
+    <hyperlink ref="L60" r:id="rId97" xr:uid="{34B5F802-A8D9-4FE9-A24F-1DA11AFE6D21}"/>
+    <hyperlink ref="L67" r:id="rId98" xr:uid="{28632512-73BE-43DC-BF1F-6BF3877D6524}"/>
+    <hyperlink ref="M60" r:id="rId99" xr:uid="{B2E1E88E-0469-4043-B8A6-A2B3F306996D}"/>
+    <hyperlink ref="M67" r:id="rId100" xr:uid="{D55E2CF8-7DE2-4DC1-8D8D-45AAF480DC61}"/>
+    <hyperlink ref="L61" r:id="rId101" tooltip="https://flic.kr/s/aHBqjBkQov" xr:uid="{F11F4550-9804-487C-931B-B778D64E40C8}"/>
+    <hyperlink ref="M61" r:id="rId102" tooltip="https://live.staticflickr.com/65535/54042719089_3c4c49dc97_h.jpg" xr:uid="{395933A2-7E2A-40F4-B4DD-CC55BCAB664D}"/>
+    <hyperlink ref="L62" r:id="rId103" xr:uid="{3D284671-446C-4F21-BA67-8B8D7D988588}"/>
+    <hyperlink ref="L64" r:id="rId104" xr:uid="{9726AE0E-81E6-49E6-B46D-961F7C71A2DC}"/>
+    <hyperlink ref="M62" r:id="rId105" xr:uid="{664306B8-8D04-46F0-8ED6-1C33298CEA37}"/>
+    <hyperlink ref="M64" r:id="rId106" xr:uid="{4BC016A4-FF89-4376-ABB5-10AC860BF485}"/>
+    <hyperlink ref="L63" r:id="rId107" xr:uid="{957AF763-9E05-4F86-815D-93F35ED943C8}"/>
+    <hyperlink ref="M63" r:id="rId108" xr:uid="{37D4B166-4ACB-411B-898C-BD558B91CF5E}"/>
+    <hyperlink ref="L66" r:id="rId109" xr:uid="{6D025942-9E4F-4C4F-BAE8-F8D38EC41205}"/>
+    <hyperlink ref="M66" r:id="rId110" xr:uid="{7B130C38-7E92-407D-A216-939216E71C72}"/>
+    <hyperlink ref="L70" r:id="rId111" xr:uid="{E1D0C4F9-51BE-44E3-86DD-13DF53EA1B43}"/>
+    <hyperlink ref="M70" r:id="rId112" xr:uid="{83E21202-3739-4F52-9EB9-2D0EFD349440}"/>
+    <hyperlink ref="M71" r:id="rId113" tooltip="https://live.staticflickr.com/65535/54042950220_e9055a310f_h.jpg" xr:uid="{D32AFD01-497E-4640-B5A4-4CCBFCB745E0}"/>
+    <hyperlink ref="L71" r:id="rId114" xr:uid="{DCCBCF1A-D396-4E60-8A46-40682CC89C4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId81"/>
+  <pageSetup orientation="portrait" r:id="rId115"/>
 </worksheet>
 </file>